--- a/汇览建筑装饰/薪资组合.xlsx
+++ b/汇览建筑装饰/薪资组合.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project\汇览建筑装饰\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\linginging\demo\汇览建筑装饰\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCF026C-2D93-4366-B85D-14849BD2A558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC05F92A-ED44-4688-B129-0BC52061F5C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3533" windowWidth="16140" windowHeight="10649" xr2:uid="{0070E28F-1CD4-42F3-B107-4DB19681F58D}"/>
+    <workbookView xWindow="3096" yWindow="2004" windowWidth="17280" windowHeight="8964" xr2:uid="{0070E28F-1CD4-42F3-B107-4DB19681F58D}"/>
   </bookViews>
   <sheets>
     <sheet name="市场部" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人提成2%-4%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +296,22 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人提成2%-4%+人才培养奖0.3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人提成2%-4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人提成2%-4%+人才培养奖0.3%+团队业绩0.3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人提成2%-4%+人才培养奖0.3%+年底利润分红5%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,14 +500,56 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -505,24 +559,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,40 +574,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -885,107 +906,107 @@
   <dimension ref="A3:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.06640625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="14.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="1" customWidth="1"/>
     <col min="6" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.265625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="4.86328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.1328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.06640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.73046875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" style="37" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="37" customWidth="1"/>
+    <col min="13" max="13" width="6.21875" style="37" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" style="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.86328125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.06640625" style="1"/>
+    <col min="17" max="17" width="19.88671875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="17">
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1002,32 +1023,39 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="33">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="18">
         <f>SUM(C5:I5)</f>
         <v>1300</v>
       </c>
-      <c r="K5" s="9">
-        <v>4500</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="K5" s="7">
+        <f>SUM(J5,100000*0.03)</f>
+        <v>4300</v>
+      </c>
+      <c r="L5" s="7">
+        <f>SUM(J5,200000*0.03)</f>
+        <v>7300</v>
+      </c>
+      <c r="M5" s="7">
+        <f>SUM(J5,300000*0.03)</f>
+        <v>10300</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>58</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" s="17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1044,22 +1072,33 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="33">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="18">
         <f t="shared" ref="J6:J11" si="0">SUM(C6:I6)</f>
         <v>1500</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7" s="17">
+      <c r="K6" s="7">
+        <f t="shared" ref="K6:K9" si="1">SUM(J6,100000*0.03)</f>
+        <v>4500</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" ref="L6:L9" si="2">SUM(J6,200000*0.03)</f>
+        <v>7500</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" ref="M6:M9" si="3">SUM(J6,300000*0.03)</f>
+        <v>10500</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1076,22 +1115,33 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="33">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="18">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A8" s="17">
+      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>4700</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="2"/>
+        <v>7700</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="3"/>
+        <v>10700</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1110,22 +1160,33 @@
       <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="33">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="18">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
+      <c r="K8" s="7">
+        <f t="shared" si="1"/>
+        <v>4900</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="2"/>
+        <v>7900</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="3"/>
+        <v>10900</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1144,22 +1205,33 @@
       <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="33">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="18">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
+      <c r="K9" s="7">
+        <f t="shared" si="1"/>
+        <v>5200</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="2"/>
+        <v>8200</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="3"/>
+        <v>11200</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>6</v>
       </c>
       <c r="B10" s="3"/>
@@ -1168,22 +1240,19 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="17">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
       <c r="B11" s="3"/>
@@ -1192,40 +1261,37 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="30"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1257,98 +1323,98 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="15.46484375" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="19"/>
+    <col min="1" max="1" width="3.44140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="13"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="9" width="4.46484375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="11.796875" style="27" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" customWidth="1"/>
+    <col min="7" max="9" width="4.44140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
     <col min="12" max="12" width="27.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.46484375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="24" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14" t="s">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="17">
+      <c r="J3" s="34"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1365,7 +1431,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="14" t="s">
         <v>43</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1374,12 +1440,12 @@
       <c r="L4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="17">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1396,7 +1462,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="14" t="s">
         <v>42</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1405,12 +1471,12 @@
       <c r="L5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="17">
+    <row r="6" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1427,21 +1493,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="14" t="s">
         <v>44</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="17">
+    <row r="7" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1458,21 +1524,21 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="14" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="17">
+    <row r="8" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1491,21 +1557,21 @@
         <v>50</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="14" t="s">
         <v>44</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1520,13 +1586,13 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="23"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1545,19 +1611,19 @@
         <v>100</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="15" t="s">
         <v>41</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="17">
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
@@ -1568,13 +1634,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="26"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="17">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
@@ -1585,27 +1651,27 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="26"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1636,15 +1702,15 @@
       <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" customWidth="1"/>
-    <col min="8" max="8" width="25.3984375" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1680,7 +1746,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1700,7 +1766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1718,7 +1784,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -1734,7 +1800,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
         <v>14</v>
@@ -1750,7 +1816,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1760,7 +1826,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1770,17 +1836,17 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/汇览建筑装饰/薪资组合.xlsx
+++ b/汇览建筑装饰/薪资组合.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\git\github\linginging\demo\汇览建筑装饰\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\linginging\demo\汇览建筑装饰\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF86830-8A84-48CE-9194-861C6ACD84FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9176D8-69AC-4993-9A03-4DA3E7518015}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{0070E28F-1CD4-42F3-B107-4DB19681F58D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0070E28F-1CD4-42F3-B107-4DB19681F58D}"/>
   </bookViews>
   <sheets>
     <sheet name="市场部" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +692,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,23 +746,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,78 +1065,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1E7D7A-0F36-4435-9474-52809C2ED1D7}">
   <dimension ref="A3:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" style="1" customWidth="1"/>
     <col min="6" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.19921875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="5.53125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.21875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" style="21" customWidth="1"/>
     <col min="12" max="12" width="5.6640625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="6.19921875" style="21" customWidth="1"/>
-    <col min="14" max="14" width="16.796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.21875" style="21" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" style="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.86328125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1328125" style="1"/>
+    <col min="17" max="17" width="19.88671875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="22" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+    <row r="4" spans="1:17" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
@@ -1155,8 +1149,8 @@
       <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="31"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="8" t="s">
         <v>46</v>
       </c>
@@ -1166,42 +1160,42 @@
       <c r="M4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-    </row>
-    <row r="5" spans="1:17" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+    </row>
+    <row r="5" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="39"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="19">
         <f>SUM(C5:I5)</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K5" s="19">
         <f>SUM(J5,100000*0.02)</f>
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L5" s="19">
         <f>SUM(J5,200000*0.02)</f>
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="M5" s="19">
         <f>SUM(J5,300000*0.02)</f>
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>102</v>
@@ -1212,9 +1206,9 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
@@ -1261,9 +1255,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
@@ -1306,9 +1300,9 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>41</v>
@@ -1351,9 +1345,9 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>42</v>
@@ -1398,9 +1392,9 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -1443,7 +1437,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -1464,26 +1458,26 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1512,97 +1506,97 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.46484375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="15.46484375" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="12"/>
+    <col min="1" max="1" width="3.44140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="12"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="8" width="4.46484375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.53125" style="12" customWidth="1"/>
+    <col min="6" max="8" width="4.44140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="12" customWidth="1"/>
     <col min="10" max="10" width="5.33203125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="5.53125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" style="21" customWidth="1"/>
     <col min="12" max="12" width="5.6640625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="6.19921875" style="21" customWidth="1"/>
-    <col min="14" max="14" width="13.73046875" style="15" customWidth="1"/>
-    <col min="15" max="15" width="16.3984375" customWidth="1"/>
+    <col min="13" max="13" width="6.21875" style="21" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
     <col min="16" max="16" width="27.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.46484375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:17" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="34"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="35" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="9" t="s">
         <v>21</v>
       </c>
@@ -1615,8 +1609,8 @@
       <c r="H3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="18" t="s">
         <v>46</v>
       </c>
@@ -1626,12 +1620,12 @@
       <c r="M3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="N3" s="39"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1680,7 +1674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2</v>
       </c>
@@ -1729,7 +1723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>3</v>
       </c>
@@ -1778,7 +1772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>4</v>
       </c>
@@ -1827,7 +1821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>5</v>
       </c>
@@ -1878,7 +1872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -1927,7 +1921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -1976,7 +1970,7 @@
       </c>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -1997,7 +1991,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -2018,26 +2012,26 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="79.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:17" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2067,68 +2061,67 @@
   <dimension ref="A3:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.53125" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" customWidth="1"/>
-    <col min="5" max="5" width="4.59765625" customWidth="1"/>
-    <col min="6" max="6" width="4.86328125" customWidth="1"/>
-    <col min="7" max="7" width="4.9296875" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="7" width="4.88671875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="11" max="11" width="8.1328125" customWidth="1"/>
-    <col min="14" max="14" width="17.86328125" customWidth="1"/>
-    <col min="15" max="15" width="18.3984375" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" customWidth="1"/>
+    <col min="14" max="14" width="17.88671875" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
     <col min="16" max="16" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="22" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
@@ -2141,8 +2134,8 @@
       <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="18" t="s">
         <v>46</v>
       </c>
@@ -2152,11 +2145,11 @@
       <c r="M4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -2191,7 +2184,7 @@
       </c>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -2224,7 +2217,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>3</v>
       </c>
@@ -2259,7 +2252,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>4</v>
       </c>
@@ -2294,7 +2287,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>5</v>
       </c>
@@ -2314,7 +2307,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -2334,35 +2327,35 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:16" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A11:P11"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -2382,37 +2375,37 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.53125" customWidth="1"/>
-    <col min="4" max="4" width="29.19921875" customWidth="1"/>
-    <col min="5" max="5" width="8.9296875" customWidth="1"/>
-    <col min="6" max="6" width="37.46484375" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2431,7 +2424,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2444,7 +2437,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2457,7 +2450,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2470,7 +2463,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2485,7 +2478,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2498,7 +2491,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2509,7 +2502,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2524,7 +2517,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2539,7 +2532,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2554,7 +2547,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2571,7 +2564,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2586,7 +2579,7 @@
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2601,7 +2594,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2614,7 +2607,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2627,17 +2620,17 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="24" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="24" t="s">
         <v>87</v>
       </c>
       <c r="G19" s="3"/>
